--- a/input_data/list_of_RAWdatasets.xlsx
+++ b/input_data/list_of_RAWdatasets.xlsx
@@ -1546,7 +1546,7 @@
     <t xml:space="preserve">RectMucosa_NKp44negNKG2Aneg_PMA_IFNg</t>
   </si>
   <si>
-    <t xml:space="preserve">RectMucosa_NKp44_IL17_gp120_stimulated</t>
+    <t xml:space="preserve">RectMucosa_NKp44_gp120_IL17</t>
   </si>
   <si>
     <t xml:space="preserve">Wk15</t>
@@ -34333,7 +34333,9 @@
       <c r="AA6" t="n">
         <v>17.6477888354407</v>
       </c>
-      <c r="AB6"/>
+      <c r="AB6" t="n">
+        <v>0.961386845742169</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -34389,7 +34391,9 @@
       <c r="AA7" t="n">
         <v>0.54042474053543</v>
       </c>
-      <c r="AB7"/>
+      <c r="AB7" t="n">
+        <v>10.6194288807627</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -34629,7 +34633,9 @@
       <c r="AA12" t="n">
         <v>10.7743647591218</v>
       </c>
-      <c r="AB12"/>
+      <c r="AB12" t="n">
+        <v>1.17788665921243</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -34685,7 +34691,9 @@
       <c r="AA13" t="n">
         <v>2.93228877266234</v>
       </c>
-      <c r="AB13"/>
+      <c r="AB13" t="n">
+        <v>9.12371426886158</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -34925,7 +34933,9 @@
       <c r="AA18" t="n">
         <v>12.9254364337828</v>
       </c>
-      <c r="AB18"/>
+      <c r="AB18" t="n">
+        <v>1.39277649212581</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -34981,7 +34991,9 @@
       <c r="AA19" t="n">
         <v>0.986853591214316</v>
       </c>
-      <c r="AB19"/>
+      <c r="AB19" t="n">
+        <v>3.95219506850104</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -35219,7 +35231,9 @@
       <c r="AA24" t="n">
         <v>9.11258890565777</v>
       </c>
-      <c r="AB24"/>
+      <c r="AB24" t="n">
+        <v>1.78622363288138</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -35275,7 +35289,9 @@
       <c r="AA25" t="n">
         <v>4.95441327936399</v>
       </c>
-      <c r="AB25"/>
+      <c r="AB25" t="n">
+        <v>15.6052056325422</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -35515,7 +35531,9 @@
       <c r="AA30" t="n">
         <v>10.4232650635602</v>
       </c>
-      <c r="AB30"/>
+      <c r="AB30" t="n">
+        <v>2.48620327494027</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -35571,7 +35589,9 @@
       <c r="AA31" t="n">
         <v>2.22343057455153</v>
       </c>
-      <c r="AB31"/>
+      <c r="AB31" t="n">
+        <v>0.455977445574041</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -35811,7 +35831,9 @@
       <c r="AA36" t="n">
         <v>13.3092823806172</v>
       </c>
-      <c r="AB36"/>
+      <c r="AB36" t="n">
+        <v>1.47284987820414</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -35867,7 +35889,9 @@
       <c r="AA37" t="n">
         <v>1.16494920183256</v>
       </c>
-      <c r="AB37"/>
+      <c r="AB37" t="n">
+        <v>6.76372244011093</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -36107,7 +36131,9 @@
       <c r="AA42" t="n">
         <v>7.669225391733</v>
       </c>
-      <c r="AB42"/>
+      <c r="AB42" t="n">
+        <v>1.47741576382803</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -36163,7 +36189,9 @@
       <c r="AA43" t="n">
         <v>0.846011054202461</v>
       </c>
-      <c r="AB43"/>
+      <c r="AB43" t="n">
+        <v>5.2779309374715</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -36403,7 +36431,9 @@
       <c r="AA48" t="n">
         <v>8.87730316444198</v>
       </c>
-      <c r="AB48"/>
+      <c r="AB48" t="n">
+        <v>0.922084682441756</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -36459,7 +36489,9 @@
       <c r="AA49" t="n">
         <v>1.9111344651176</v>
       </c>
-      <c r="AB49"/>
+      <c r="AB49" t="n">
+        <v>2.74345060932057</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -36699,7 +36731,9 @@
       <c r="AA54" t="n">
         <v>7.78220605456564</v>
       </c>
-      <c r="AB54"/>
+      <c r="AB54" t="n">
+        <v>0.567383153174909</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -36755,7 +36789,9 @@
       <c r="AA55" t="n">
         <v>0.675240443638963</v>
       </c>
-      <c r="AB55"/>
+      <c r="AB55" t="n">
+        <v>7.42319392906094</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -36995,7 +37031,9 @@
       <c r="AA60" t="n">
         <v>7.80957643231193</v>
       </c>
-      <c r="AB60"/>
+      <c r="AB60" t="n">
+        <v>0.169782022408107</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -37051,7 +37089,9 @@
       <c r="AA61" t="n">
         <v>2.66931908557678</v>
       </c>
-      <c r="AB61"/>
+      <c r="AB61" t="n">
+        <v>3.14607698594411</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -37287,7 +37327,9 @@
       <c r="AA66" t="n">
         <v>7.52588987948402</v>
       </c>
-      <c r="AB66"/>
+      <c r="AB66" t="n">
+        <v>0.169181448477811</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -37343,7 +37385,9 @@
       <c r="AA67" t="n">
         <v>1.48798580076522</v>
       </c>
-      <c r="AB67"/>
+      <c r="AB67" t="n">
+        <v>11.2149946491404</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -37583,7 +37627,9 @@
       <c r="AA72" t="n">
         <v>12.3843534342345</v>
       </c>
-      <c r="AB72"/>
+      <c r="AB72" t="n">
+        <v>1.1191167582252</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -37639,7 +37685,9 @@
       <c r="AA73" t="n">
         <v>3.2772994941632</v>
       </c>
-      <c r="AB73"/>
+      <c r="AB73" t="n">
+        <v>7.49968402726098</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -47870,7 +47918,7 @@
         <v>-17.1073640949053</v>
       </c>
       <c r="AB326" t="n">
-        <v>9.65804204</v>
+        <v>9.6580420350205</v>
       </c>
     </row>
     <row r="327">
@@ -47940,7 +47988,7 @@
         <v>-7.84207598645941</v>
       </c>
       <c r="AB327" t="n">
-        <v>7.94582761</v>
+        <v>7.94582760964915</v>
       </c>
     </row>
     <row r="328">
@@ -48010,7 +48058,7 @@
         <v>-11.9385828425685</v>
       </c>
       <c r="AB328" t="n">
-        <v>2.55941858</v>
+        <v>2.55941857637524</v>
       </c>
     </row>
     <row r="329">
@@ -48080,7 +48128,7 @@
         <v>-4.15817562629378</v>
       </c>
       <c r="AB329" t="n">
-        <v>13.818982</v>
+        <v>13.8189819996608</v>
       </c>
     </row>
     <row r="330">
@@ -48150,7 +48198,7 @@
         <v>-8.19983448900869</v>
       </c>
       <c r="AB330" t="n">
-        <v>-2.03022583</v>
+        <v>-2.03022582936623</v>
       </c>
     </row>
     <row r="331">
@@ -48220,7 +48268,7 @@
         <v>-12.1443331787847</v>
       </c>
       <c r="AB331" t="n">
-        <v>5.29087256</v>
+        <v>5.29087256190678</v>
       </c>
     </row>
     <row r="332">
@@ -48290,7 +48338,7 @@
         <v>-6.82321433753054</v>
       </c>
       <c r="AB332" t="n">
-        <v>3.80051517</v>
+        <v>3.80051517364347</v>
       </c>
     </row>
     <row r="333">
@@ -48360,7 +48408,7 @@
         <v>-6.96616869932438</v>
       </c>
       <c r="AB333" t="n">
-        <v>1.82136593</v>
+        <v>1.82136592687881</v>
       </c>
     </row>
     <row r="334">
@@ -48430,7 +48478,7 @@
         <v>-7.10696561092668</v>
       </c>
       <c r="AB334" t="n">
-        <v>6.85581078</v>
+        <v>6.85581077588604</v>
       </c>
     </row>
     <row r="335">
@@ -48500,7 +48548,7 @@
         <v>-5.14025734673515</v>
       </c>
       <c r="AB335" t="n">
-        <v>2.97629496</v>
+        <v>2.97629496353601</v>
       </c>
     </row>
     <row r="336">
@@ -48570,7 +48618,7 @@
         <v>-6.03790407871879</v>
       </c>
       <c r="AB336" t="n">
-        <v>11.0458132</v>
+        <v>11.0458132006626</v>
       </c>
     </row>
     <row r="337">
@@ -48640,7 +48688,7 @@
         <v>-9.10705394007129</v>
       </c>
       <c r="AB337" t="n">
-        <v>6.38056727</v>
+        <v>6.38056726903577</v>
       </c>
     </row>
     <row r="338">

--- a/input_data/list_of_RAWdatasets.xlsx
+++ b/input_data/list_of_RAWdatasets.xlsx
@@ -50596,7 +50596,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>531</v>
@@ -50613,7 +50613,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>532</v>
@@ -50630,7 +50630,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>533</v>
@@ -50647,7 +50647,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>534</v>
@@ -50664,7 +50664,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>535</v>
@@ -50681,7 +50681,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>536</v>
@@ -50698,7 +50698,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>537</v>
@@ -50715,7 +50715,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>538</v>
@@ -50732,7 +50732,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>539</v>
@@ -50749,7 +50749,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>540</v>
@@ -50766,7 +50766,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>541</v>
@@ -50783,7 +50783,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>542</v>
